--- a/results/metric_df/VVL_metrics.xlsx
+++ b/results/metric_df/VVL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,417 +466,704 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7604183438563802</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.973940888302121</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.973940888302121</v>
+        <v>-0.2959817851584226</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>2.973940888302121</v>
+        <v>2.772549263611866</v>
       </c>
       <c r="F2" t="n">
-        <v>14.89044904490449</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.4200189891247524</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.295259307672166</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.168148491175445</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.168148491175445</v>
+        <v>-0.2936337333280888</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>3.168148491175445</v>
+        <v>2.085399217281141</v>
       </c>
       <c r="F3" t="n">
-        <v>4.131773645270947</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.9029794142254892</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(b1-3)Gal(a1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6206908048516411</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.34788678340402</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.34788678340402</v>
+        <v>-0.7604183438563802</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>3.34788678340402</v>
+        <v>2.973940888302121</v>
       </c>
       <c r="F4" t="n">
-        <v>6.098600000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>2.332801287369361</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7862827756042768</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.305672870331619</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.305672870331619</v>
+        <v>-0.295259307672166</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>3.305672870331619</v>
+        <v>5.94869387185979</v>
       </c>
       <c r="F5" t="n">
-        <v>6.183000000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.695474309488004</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(b1-4)Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.224235220644148</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.100918634996691</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.100918634996691</v>
+        <v>0.093690179596324</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>3.100918634996691</v>
+        <v>3.041646710200382</v>
       </c>
       <c r="F6" t="n">
-        <v>3.38974</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.2218727152890093</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2318992743109413</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.71534416929608</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.71534416929608</v>
+        <v>0.07262670759827169</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>2.71534416929608</v>
+        <v>2.265804668686911</v>
       </c>
       <c r="F7" t="n">
-        <v>3.482264893155983</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.2931815095715283</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2922107792902852</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.664576180536996</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.664576180536996</v>
+        <v>0.1834032290577676</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>2.664576180536996</v>
+        <v>2.254148443376134</v>
       </c>
       <c r="F8" t="n">
-        <v>7.274647535246475</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.2145360474549808</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2957409593297306</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2.302631596004201</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3878380597922815</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GalNAc(b1-3)Gal(a1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6206908048516411</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3.34788678340402</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.528692319566462</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7862827756042768</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3.305672870331619</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.549848262204348</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>GalNAc(b1-4)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.224235220644148</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3.100918634996691</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.062102265955961</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2958914754726405</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2.811005603344966</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.2955603399581665</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2.123525408676395</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3702598580263008</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2958613722439863</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2.018571414702775</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2215637830990705</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2956807528724222</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3.086745354861214</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2088856895525834</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.280809757947035</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2.882726071713295</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7893121773985554</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.005907394942137</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1.965267323824594</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4293113785960005</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.2959215787012947</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3.056995051628025</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.878091234767277</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2959817851584226</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2.736093849598977</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4500024410031303</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.2951388947577297</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3.068369033665478</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6424538400444744</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2318992743109413</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2.71534416929608</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8728743640939686</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2953496173579481</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2.895485410038187</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3641241693070835</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2922107792902852</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2.664576180536996</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.519569766651961</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
           <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B25" t="n">
         <v>0.0600763031551642</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>2.671783269639034</v>
       </c>
-      <c r="D9" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.64785</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+      <c r="F25" t="n">
+        <v>1.011218607205335</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
